--- a/市場_2025改修/ソース/uriwari_yyyy.xlsx
+++ b/市場_2025改修/ソース/uriwari_yyyy.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SI-111\d\01_Work\99_ETC\01_サントク\03_姫路市市場\20_ソース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8844690-057A-4D7F-BE5C-29880516CCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="4320" windowWidth="11670" windowHeight="9090"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202503" sheetId="1" r:id="rId1"/>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -441,17 +442,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="2" max="2" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">

--- a/市場_2025改修/ソース/uriwari_yyyy.xlsx
+++ b/市場_2025改修/ソース/uriwari_yyyy.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\si001\市場_2025改修\ソース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8844690-057A-4D7F-BE5C-29880516CCCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D9954F-CA74-475D-AC92-EAFED1D757E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="202503" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>テナントコード</t>
   </si>
@@ -55,6 +55,13 @@
       <t>キンガク</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テナント名称</t>
+    <rPh sb="4" eb="6">
+      <t>メイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -443,23 +450,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="19.875" customWidth="1"/>
+    <col min="1" max="2" width="18.5" customWidth="1"/>
+    <col min="3" max="3" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
